--- a/Meeting Minutes/MeetingMinutes.xlsx
+++ b/Meeting Minutes/MeetingMinutes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="16720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Meeting Date</t>
   </si>
@@ -61,10 +61,22 @@
     <t>Worked on 1st presentation pitch</t>
   </si>
   <si>
-    <t>discussed research</t>
-  </si>
-  <si>
     <t>Discussed and set tasks for the week.</t>
+  </si>
+  <si>
+    <t>Discussed research</t>
+  </si>
+  <si>
+    <t>Put first build on Github for playtesting</t>
+  </si>
+  <si>
+    <t>Disscused Play testing</t>
+  </si>
+  <si>
+    <t>Disscussed Art Assets</t>
+  </si>
+  <si>
+    <t>Disscused Possible Changes to Game</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,8 +164,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,8 +182,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,9 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -192,14 +224,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -606,19 +664,37 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2">
+        <v>42781</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
@@ -738,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -761,42 +837,42 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -811,52 +887,52 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -873,16 +949,129 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42774</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42779</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42781</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A3:E3"/>
